--- a/ky/downloads/data-excel/8.3.1.2.xlsx
+++ b/ky/downloads/data-excel/8.3.1.2.xlsx
@@ -49,10 +49,6 @@
     <t>Medium-sized enterprises</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3.1.2 Экономикадагы иш менен камсыз болгон бардык калктын чакан жана орто ишканаларда иштегендердин үлүшү
-</t>
-  </si>
-  <si>
     <t>Чакан ишканалар</t>
   </si>
   <si>
@@ -75,6 +71,9 @@
   </si>
   <si>
     <t>(in percent)</t>
+  </si>
+  <si>
+    <t>8.3.1.2 Экономикадагы иш менен камсыз болгон бардык калктын чакан жана орто ишканаларда иштегендердин үлүшү</t>
   </si>
 </sst>
 </file>
@@ -504,11 +503,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -516,9 +513,9 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -527,15 +524,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -546,7 +543,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -560,16 +557,17 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="D4" s="6">
         <v>2013</v>
@@ -601,10 +599,13 @@
       <c r="M4" s="6">
         <v>2022</v>
       </c>
+      <c r="N4" s="6">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -642,10 +643,13 @@
       <c r="M5" s="8">
         <v>2.2000000000000002</v>
       </c>
+      <c r="N5" s="8">
+        <v>2.5449890821474286</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>1</v>
@@ -683,8 +687,11 @@
       <c r="M6" s="10">
         <v>1.2</v>
       </c>
+      <c r="N6" s="10">
+        <v>1.4569686017619159</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
